--- a/biology/Zoologie/Élénie_siffleuse/Élénie_siffleuse.xlsx
+++ b/biology/Zoologie/Élénie_siffleuse/Élénie_siffleuse.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>%C3%89l%C3%A9nie_siffleuse</t>
+          <t>Élénie_siffleuse</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Elaenia martinica
 L'Élénie siffleuse (Elaenia martinica) est une espèce de passereaux de la famille des Tyrannidae (Tyrannidés en français).
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>%C3%89l%C3%A9nie_siffleuse</t>
+          <t>Élénie_siffleuse</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,9 +524,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'aspect général est olive brunâtre. La base blanche du plumage sur la tête forme une tache peu visible sur la calotte. La gorge et la poitrine sont grises, cette dernière est légèrement teintée olive. Les flancs et les sous-caudales sont olive pâle mixé de blanchâtre sur le milieu de l'abdomen. Le dessous des ailes est jaunâtre pâle, le dessus des ailes et la queue sont brun foncé, certaines des primaires et des secondaires délicatement terminées de blanc jaunâtre sur l'extérieur et plus soutenu sur l'intérieur[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'aspect général est olive brunâtre. La base blanche du plumage sur la tête forme une tache peu visible sur la calotte. La gorge et la poitrine sont grises, cette dernière est légèrement teintée olive. Les flancs et les sous-caudales sont olive pâle mixé de blanchâtre sur le milieu de l'abdomen. Le dessous des ailes est jaunâtre pâle, le dessus des ailes et la queue sont brun foncé, certaines des primaires et des secondaires délicatement terminées de blanc jaunâtre sur l'extérieur et plus soutenu sur l'intérieur.
 </t>
         </is>
       </c>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>%C3%89l%C3%A9nie_siffleuse</t>
+          <t>Élénie_siffleuse</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">L'Élénie siffleuse se rencontre de l'ouest du Mexique au nord du Belize et sur l'ensemble des îles des Caraïbes. 
 </t>
@@ -556,7 +572,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>%C3%89l%C3%A9nie_siffleuse</t>
+          <t>Élénie_siffleuse</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -574,9 +590,11 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce fréquente les régions boisées dégagées[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce fréquente les régions boisées dégagées.
 </t>
         </is>
       </c>
@@ -587,7 +605,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>%C3%89l%C3%A9nie_siffleuse</t>
+          <t>Élénie_siffleuse</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -605,9 +623,11 @@
           <t>Nidification</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'Élénie siffleuse construit un nid peu profond, en forme de tasse, orné de toiles d'araignées, de lichens, de plumes, etc. dans des buissons ou des arbres de petite taille. En général, la femelle y pond deux œufs[3].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'Élénie siffleuse construit un nid peu profond, en forme de tasse, orné de toiles d'araignées, de lichens, de plumes, etc. dans des buissons ou des arbres de petite taille. En général, la femelle y pond deux œufs.
 </t>
         </is>
       </c>
@@ -618,7 +638,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>%C3%89l%C3%A9nie_siffleuse</t>
+          <t>Élénie_siffleuse</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -636,7 +656,9 @@
           <t>Sous-espèces</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>D'après la classification de référence (version 5.2, 2015) du Congrès ornithologique international, cette espèce est constituée des sept sous-espèces suivantes (ordre phylogénique) :
 Elaenia martinica riisii Sclater, 1860 ;
